--- a/biology/Médecine/Marcel_Faure-Beaulieu/Marcel_Faure-Beaulieu.xlsx
+++ b/biology/Médecine/Marcel_Faure-Beaulieu/Marcel_Faure-Beaulieu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marcel Faure-Beaulieu, né le 27 février 1878 à Saint-Maurice (Val-de-Marne) et mort le 16 février 1959 à Paris 16e[1], fut un médecin français, qui exerça à l'hôpital Saint-Antoine à Paris. Il est l'auteur de la première traduction française de Le Sentiment tragique de la vie, de Miguel de Unamuno. Il entreprit cette traduction « dans les tranchées, et tandis que le fracas des canons et la vue du sang remuaient en lui le sentiment tragique de la vie »[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marcel Faure-Beaulieu, né le 27 février 1878 à Saint-Maurice (Val-de-Marne) et mort le 16 février 1959 à Paris 16e, fut un médecin français, qui exerça à l'hôpital Saint-Antoine à Paris. Il est l'auteur de la première traduction française de Le Sentiment tragique de la vie, de Miguel de Unamuno. Il entreprit cette traduction « dans les tranchées, et tandis que le fracas des canons et la vue du sang remuaient en lui le sentiment tragique de la vie ».
 </t>
         </is>
       </c>
